--- a/Day12/seoul_pop.xlsx
+++ b/Day12/seoul_pop.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152212</v>
+        <v>152211</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131390</v>
+        <v>130785</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232482</v>
+        <v>233284</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287240</v>
+        <v>288234</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350925</v>
+        <v>351252</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354884</v>
+        <v>353601</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389928</v>
+        <v>390140</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441855</v>
+        <v>441984</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296934</v>
+        <v>297702</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312858</v>
+        <v>313989</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>506989</v>
+        <v>508014</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468766</v>
+        <v>470602</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>321966</v>
+        <v>319554</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>376542</v>
+        <v>375585</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>442345</v>
+        <v>444010</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>573711</v>
+        <v>574638</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>417983</v>
+        <v>418418</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242467</v>
+        <v>242818</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>398999</v>
+        <v>398085</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>390377</v>
+        <v>390432</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>502628</v>
+        <v>501226</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408979</v>
+        <v>408451</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>537817</v>
+        <v>534103</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>663704</v>
+        <v>664514</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>464027</v>
+        <v>464037</v>
       </c>
     </row>
   </sheetData>
